--- a/medicine/Pharmacie/Classe_ATC_A12/Classe_ATC_A12.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_A12/Classe_ATC_A12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A12, dénommée « Compléments minéraux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1][2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A12, dénommée « Compléments minéraux », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A12AA Calcium
-A12AA01 phosphate de calcium
+          <t>A12AA Calcium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A12AA01 phosphate de calcium
 A12AA02 glubionate de calcium
 A12AA03 gluconate de calcium
 A12AA04 carbonate de calcium
@@ -527,8 +544,7 @@
 A12AA11 pangamate de calcium
 A12AA13 Citrate de calcium
 A12AA20 Calcium (différents sels en association)
-A12AA30 laévulate de calcium
-A12AX Calcium, associations avec vitamine D et/ou d'autre médicaments</t>
+A12AA30 laévulate de calcium</t>
         </is>
       </c>
     </row>
@@ -558,8 +574,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A12BA Potassium
-A12BA01 chlorure de potassium
+          <t>A12BA Potassium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A12BA01 chlorure de potassium
 A12BA02 citrate de potassium
 A12BA03 hydrogénotartrate de potassium
 A12BA04 hydrogénocarbonate de potassium
@@ -595,15 +616,88 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A12CA Sodium
-A12CA01 chlorure de sodium
-A12CA02 sulfate de sodium
-A12CB Zinc
-A12CB01 sulfate de zinc
+          <t>A12CA Sodium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A12CA01 chlorure de sodium
+A12CA02 sulfate de sodium</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A12C Autres compléments minéraux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A12CB Zinc</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A12CB01 sulfate de zinc
 A12CB02 gluconate de zinc
-A12CB03 complexe zinc-protéine
-A12CC Magnésium
-A12CC01 chlorure de magnésium
+A12CB03 complexe zinc-protéine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A12C Autres compléments minéraux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A12CC Magnésium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A12CC01 chlorure de magnésium
 A12CC02 sulfate de magnésium
 A12CC03 gluconate de magnésium
 A12CC04 citrate de magnésium
@@ -613,17 +707,119 @@
 A12CC08 pidolate de magnésium
 A12CC09 orotate de magnésium
 A12CC10 oxyde de magnésium
-A12CC30 Magnésium (différent sels en association)
-A12CD Fluorure
-A12CD01 fluorure de sodium
+A12CC30 Magnésium (différent sels en association)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A12C Autres compléments minéraux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A12CD Fluorure</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A12CD01 fluorure de sodium
 A12CD02 monofluorophosphate de sodium
-A12CD51 Fluorure, associations
-A12CE Sélénium
-A12CE01 sélénate de sodium
+A12CD51 Fluorure, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A12C Autres compléments minéraux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A12CE Sélénium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A12CE01 sélénate de sodium
 A12CE02 sélénite de sodium
-« QA12CE99 » Sélénium, associations
-A12CX Autres produits minéraux
-« QA12CX90 » Toldimfos
+« QA12CE99 » Sélénium, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A12C Autres compléments minéraux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A12CX Autres produits minéraux</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>« QA12CX90 » Toldimfos
 « QA12CX91 » Butafosfan
 « QA12CX99 » Autres produits minéraux, associations</t>
         </is>
